--- a/Postmen API Testing.xlsx
+++ b/Postmen API Testing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\IT-Bootcamp-Reinforcement-Project-API-Postman\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sablon" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -122,18 +121,12 @@
 </t>
   </si>
   <si>
-    <t>Koristimo kada želimo da   dobijemo tj. Izlistamo jednog korisnika sa određenim id-em.</t>
-  </si>
-  <si>
     <t xml:space="preserve">200OK 201 ms poziv je uspešan
 </t>
   </si>
   <si>
     <t>200OK
 175 ms "msg": "DELETED"</t>
-  </si>
-  <si>
-    <t>Korisimo kada želimo da izbrišemo klorisnika po određenom id-u</t>
   </si>
   <si>
     <t>Odziv : 200OK 194 ms Dobije profil korisnika</t>
@@ -197,12 +190,6 @@
 </t>
   </si>
   <si>
-    <t>Može se kreirati korisnik sa imenom kao jednim specijalnim karakterom. npr znak #. Može se kreirati sa imenom kao jedno slovo. Može se kreirati korisnik sa jendim imenom kao jedno slovo. Odziv : dobijen je token (Bearer) koji cemo koristi za logovanje, zajedno sa izgenerisanim id-em. Dobijen je status: "201 Crated".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Može se ulgovati korisnokom koji ima ime  kao jednim specijalnim karakterom. npr znak #. Može se ulgovati korisnokom koji ima ime kao jedno slovo.  Odziv status 200 OK Time : 201 ms, u body-ju je token i user </t>
-  </si>
-  <si>
     <t xml:space="preserve">Koristimo kada želimo da  ažuriramo korisnika sa novim imenom i mejlom. Šalje se novo ime za usera i novi email koji ne postoji u bazi.
 </t>
   </si>
@@ -217,6 +204,18 @@
   </si>
   <si>
     <t>Koristimo za pravljenje novih gradova.</t>
+  </si>
+  <si>
+    <t>Može se kreirati korisnik sa imenom kao jednim specijalnim karakterom, npr znak "#". Može se kreirati sa imenom kao jedno slovo. Može se kreirati sa imenom kao jedan broj. Odziv : dobijen je token (Bearer) koji cemo koristi za logovanje, zajedno sa izgenerisanim id-em. Dobijen je status: "201 Crated".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Može se ulgovati korisnokom koji ima ime kao jedan specijalni karakter, npr znak #. Može se ulgovati korisnokom koji ima ime kao jedno slovo. Može se ulogovati sa imenom kao jedan broj. Odziv status 200 OK Time : 201 ms, u body-ju je token i user </t>
+  </si>
+  <si>
+    <t>Koristimo kada želimo da  dobijemo tj. Izlistamo jednog korisnika sa određenim id-em.</t>
+  </si>
+  <si>
+    <t>Korisimo kada želimo da izbrišemo korisnika po određenom id-u</t>
   </si>
 </sst>
 </file>
@@ -301,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -337,6 +336,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,8 +560,8 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -584,8 +586,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -595,7 +597,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -609,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -637,7 +639,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -690,10 +692,10 @@
         <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -704,7 +706,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>31</v>
@@ -718,10 +720,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -732,10 +734,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
@@ -746,10 +748,10 @@
         <v>15</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
@@ -760,10 +762,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
@@ -774,10 +776,10 @@
         <v>17</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
@@ -788,10 +790,10 @@
         <v>18</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
@@ -802,10 +804,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -816,10 +818,10 @@
         <v>19</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
@@ -830,10 +832,10 @@
         <v>19</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -844,10 +846,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
